--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_29.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_29.xlsx
@@ -420,10 +420,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
